--- a/ASP.NET CORE/OPERATION_MNS/public/wwwroot/templates/SiteCalendarTemplate_Module.xlsx
+++ b/ASP.NET CORE/OPERATION_MNS/public/wwwroot/templates/SiteCalendarTemplate_Module.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wisol_Git\OPERATION_MNS_SYSTEM\OPERATION_MNS\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E3F8A7-DF4C-4524-BDAF-086251A07EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB039A2-F67C-48F3-8664-69B905488BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3165" yWindow="1710" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -36,12 +36,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Work date(yyyy-MM-dd)</t>
   </si>
   <si>
-    <t>OnTime(0 Hoặc 24)</t>
+    <r>
+      <t xml:space="preserve">Performent </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SMT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Hiệu suất ngày , max = 1)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -56,7 +79,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>SMT</t>
+      <t>LFEM</t>
     </r>
     <r>
       <rPr>
@@ -71,28 +94,70 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Performent </t>
-    </r>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="2" tint="-0.89999084444715716"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LFEM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Hiệu suất ngày , max = 1)</t>
+      <t>OnTime</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SMT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(0 Hoặc 24)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OnTime</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LFEM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(0 Hoặc 24)</t>
     </r>
   </si>
 </sst>
@@ -100,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +177,22 @@
       <b/>
       <sz val="11"/>
       <color theme="2" tint="-0.89999084444715716"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -443,35 +524,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C02AAE3-63C8-438C-938C-A1D819385FF8}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" customWidth="1"/>
+    <col min="1" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45292</v>
       </c>
@@ -479,71 +563,84 @@
         <v>24</v>
       </c>
       <c r="C2" s="1">
-        <v>0.8</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
